--- a/asistencia.xlsx
+++ b/asistencia.xlsx
@@ -424,29 +424,29 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Codigo Qr</t>
+          <t>Nombre</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Carrera</t>
+          <t>Matrícula</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-24</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dulce Maria Garcia Rojas</t>
+          <t>Ignacio Nava Castillo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Estilismo</t>
+          <t>PG2001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
